--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_17_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1165312.725814597</v>
+        <v>1161300.9230825</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518387</v>
+        <v>29001646.18518385</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.960140342</v>
+        <v>6432656.960140341</v>
       </c>
     </row>
     <row r="9">
@@ -1375,10 +1375,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>71.31660305952524</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>122.3474053316703</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.486043837284194</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.48994447064856</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S13" t="n">
         <v>152.8999186087154</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>114.1864955382736</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.7646952433527</v>
+        <v>8.031209671398354</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T15" t="n">
         <v>136.1757056744559</v>
@@ -1770,10 +1770,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S16" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>171.5577467618243</v>
+        <v>48.4258312966662</v>
       </c>
       <c r="U16" t="n">
         <v>277.3339849899809</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>168.013265239619</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>14.0363326979909</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T18" t="n">
         <v>136.1757056744559</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>50.2292374358841</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.489944470648581</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.097464026797</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>39.14481473018313</v>
       </c>
     </row>
     <row r="20">
@@ -2086,10 +2086,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>144.7225558740581</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161367</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>377.7111332699981</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T21" t="n">
         <v>136.1757056744559</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>51.07231000234214</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>15.53765280471126</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648581</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>152.8999186087154</v>
@@ -2301,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2320,22 +2320,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>289.2297364610828</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H23" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>255.612391572116</v>
@@ -2380,13 +2380,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>95.14564290930542</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T24" t="n">
         <v>136.1757056744559</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S25" t="n">
         <v>152.8999186087154</v>
@@ -2532,7 +2532,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3339849899809</v>
+        <v>277.333984989982</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>62.95162893093359</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161367</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U26" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
-        <v>266.6504720759104</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T27" t="n">
         <v>136.1757056744559</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2794,19 +2794,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3085625684984</v>
+        <v>348.4526472526134</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161367</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>164.2289473119879</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T30" t="n">
         <v>136.1757056744559</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>357.3083453980416</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.04236988161367</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T32" t="n">
         <v>210.0177446442483</v>
@@ -3088,10 +3088,10 @@
         <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>367.1895936466836</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T33" t="n">
         <v>136.1757056744559</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.489944470648581</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S34" t="n">
         <v>152.8999186087154</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>106.8799433587653</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.04236988161367</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T35" t="n">
-        <v>14.94015140298312</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.76258397304347</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T36" t="n">
         <v>136.1757056744559</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>24.21731013448184</v>
       </c>
       <c r="G37" t="n">
-        <v>76.47881201445233</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648581</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.097464026797</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>142.9775754080166</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H38" t="n">
-        <v>274.5392124624013</v>
+        <v>11.84819637413794</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T39" t="n">
         <v>136.1757056744559</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>22.12173828816374</v>
+        <v>21.41609356890149</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.7030512222169</v>
@@ -3681,7 +3681,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I40" t="n">
-        <v>71.96559361603956</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H41" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161368</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>371.6401324079412</v>
+        <v>184.9348172938609</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T42" t="n">
         <v>136.1757056744559</v>
@@ -3906,16 +3906,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>56.50379412706881</v>
       </c>
       <c r="F43" t="n">
-        <v>2.497922066405559</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.489944470648588</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>152.8999186087154</v>
@@ -3957,13 +3957,13 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>57.20223144983306</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.04236988161368</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>321.4425785919032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.76258397304348</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T45" t="n">
         <v>136.1757056744559</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>84.62190419704127</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4155,7 +4155,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T46" t="n">
         <v>237.097464026797</v>
@@ -4194,16 +4194,16 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>98.68849319412936</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1667.422259516196</v>
+        <v>1598.06960576594</v>
       </c>
       <c r="C11" t="n">
-        <v>1240.521529529497</v>
+        <v>1171.16887577924</v>
       </c>
       <c r="D11" t="n">
-        <v>817.2289087144968</v>
+        <v>1171.16887577924</v>
       </c>
       <c r="E11" t="n">
         <v>745.1919359270976</v>
@@ -5035,19 +5035,19 @@
         <v>320.0677541164978</v>
       </c>
       <c r="H11" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103617</v>
+        <v>84.39494262103563</v>
       </c>
       <c r="J11" t="n">
-        <v>222.2360596072046</v>
+        <v>222.236059607204</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715609998</v>
       </c>
       <c r="L11" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848317</v>
       </c>
       <c r="M11" t="n">
         <v>1017.958031365649</v>
@@ -5056,37 +5056,37 @@
         <v>1332.07042163564</v>
       </c>
       <c r="O11" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636163</v>
       </c>
       <c r="P11" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977125</v>
       </c>
       <c r="Q11" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R11" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="S11" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.142258348448</v>
       </c>
       <c r="T11" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.142258348448</v>
       </c>
       <c r="U11" t="n">
-        <v>2079.142258348449</v>
+        <v>1955.55902063969</v>
       </c>
       <c r="V11" t="n">
-        <v>2079.142258348449</v>
+        <v>1598.06960576594</v>
       </c>
       <c r="W11" t="n">
-        <v>2079.142258348449</v>
+        <v>1598.06960576594</v>
       </c>
       <c r="X11" t="n">
-        <v>1667.422259516196</v>
+        <v>1598.06960576594</v>
       </c>
       <c r="Y11" t="n">
-        <v>1667.422259516196</v>
+        <v>1598.06960576594</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C12" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D12" t="n">
         <v>377.0871448858306</v>
@@ -5111,37 +5111,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G12" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H12" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745215</v>
+        <v>62.98439029745212</v>
       </c>
       <c r="J12" t="n">
         <v>142.0237151377162</v>
       </c>
       <c r="K12" t="n">
-        <v>289.8146695059645</v>
+        <v>289.8146695059644</v>
       </c>
       <c r="L12" t="n">
-        <v>496.0652591283643</v>
+        <v>496.0652591283642</v>
       </c>
       <c r="M12" t="n">
-        <v>896.8821538038975</v>
+        <v>739.8954600838656</v>
       </c>
       <c r="N12" t="n">
-        <v>1149.507219438093</v>
+        <v>992.5205257180611</v>
       </c>
       <c r="O12" t="n">
-        <v>1376.999083460952</v>
+        <v>1220.01238974092</v>
       </c>
       <c r="P12" t="n">
-        <v>1556.439737111774</v>
+        <v>1399.453043391742</v>
       </c>
       <c r="Q12" t="n">
-        <v>1668.279192602594</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R12" t="n">
         <v>1815.649874842555</v>
@@ -5162,10 +5162,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X12" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y12" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="13">
@@ -5175,58 +5175,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>423.1010292829092</v>
+        <v>595.0735924039931</v>
       </c>
       <c r="C13" t="n">
-        <v>423.1010292829092</v>
+        <v>423.1010292829091</v>
       </c>
       <c r="D13" t="n">
-        <v>423.1010292829092</v>
+        <v>423.1010292829091</v>
       </c>
       <c r="E13" t="n">
-        <v>423.1010292829092</v>
+        <v>423.1010292829091</v>
       </c>
       <c r="F13" t="n">
-        <v>251.2392550574696</v>
+        <v>251.2392550574695</v>
       </c>
       <c r="G13" t="n">
-        <v>251.2392550574696</v>
+        <v>251.2392550574695</v>
       </c>
       <c r="H13" t="n">
         <v>115.4479370999708</v>
       </c>
       <c r="I13" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="J13" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484806</v>
       </c>
       <c r="K13" t="n">
-        <v>244.4028516473351</v>
+        <v>413.7637441131362</v>
       </c>
       <c r="L13" t="n">
-        <v>353.8973418393831</v>
+        <v>899.6471278963492</v>
       </c>
       <c r="M13" t="n">
-        <v>698.2420836039705</v>
+        <v>1015.623186533303</v>
       </c>
       <c r="N13" t="n">
-        <v>1210.770261587371</v>
+        <v>1130.118441674823</v>
       </c>
       <c r="O13" t="n">
-        <v>1690.926608658704</v>
+        <v>1610.274788746156</v>
       </c>
       <c r="P13" t="n">
-        <v>2088.252358880158</v>
+        <v>2007.60053896761</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="R13" t="n">
-        <v>2131.215415329222</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.771053098196</v>
+        <v>1976.771053098195</v>
       </c>
       <c r="T13" t="n">
         <v>1737.27866519234</v>
@@ -5235,16 +5235,16 @@
         <v>1457.143326818622</v>
       </c>
       <c r="V13" t="n">
-        <v>1175.431859426651</v>
+        <v>1175.43185942665</v>
       </c>
       <c r="W13" t="n">
-        <v>900.5794555991642</v>
+        <v>900.5794555991633</v>
       </c>
       <c r="X13" t="n">
-        <v>658.0155590449693</v>
+        <v>900.5794555991633</v>
       </c>
       <c r="Y13" t="n">
-        <v>431.6727907347114</v>
+        <v>785.2395611160587</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>746.9684841031977</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="C14" t="n">
-        <v>320.0677541164978</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="D14" t="n">
-        <v>320.0677541164978</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E14" t="n">
-        <v>320.0677541164978</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F14" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G14" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H14" t="n">
         <v>42.75541829589046</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103653</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J14" t="n">
-        <v>222.2360596072049</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K14" t="n">
-        <v>437.0691715610008</v>
+        <v>437.0691715610002</v>
       </c>
       <c r="L14" t="n">
-        <v>709.5851800848325</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M14" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N14" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O14" t="n">
         <v>1626.510864636164</v>
@@ -5305,25 +5305,25 @@
         <v>2137.770914794523</v>
       </c>
       <c r="S14" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T14" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U14" t="n">
-        <v>1879.576579873194</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V14" t="n">
-        <v>1522.087164999443</v>
+        <v>1721.652843474698</v>
       </c>
       <c r="W14" t="n">
-        <v>1522.087164999443</v>
+        <v>1325.261493775045</v>
       </c>
       <c r="X14" t="n">
-        <v>1110.36716616719</v>
+        <v>1325.261493775045</v>
       </c>
       <c r="Y14" t="n">
-        <v>746.9684841031977</v>
+        <v>1317.149160773633</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>42.75541829589046</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745212</v>
+        <v>86.44169614186397</v>
       </c>
       <c r="J15" t="n">
-        <v>142.0237151377161</v>
+        <v>299.0104088577484</v>
       </c>
       <c r="K15" t="n">
-        <v>552.2568635109028</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L15" t="n">
-        <v>758.5074531333025</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M15" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N15" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O15" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P15" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q15" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R15" t="n">
         <v>1815.649874842555</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>589.4200240256999</v>
+        <v>586.5285910517829</v>
       </c>
       <c r="C16" t="n">
-        <v>417.447460904616</v>
+        <v>414.5560279306989</v>
       </c>
       <c r="D16" t="n">
-        <v>417.447460904616</v>
+        <v>251.2392550574695</v>
       </c>
       <c r="E16" t="n">
         <v>251.2392550574695</v>
@@ -5448,7 +5448,7 @@
         <v>768.3405774192804</v>
       </c>
       <c r="N16" t="n">
-        <v>1210.77026158737</v>
+        <v>1280.868755402681</v>
       </c>
       <c r="O16" t="n">
         <v>1690.926608658704</v>
@@ -5463,25 +5463,25 @@
         <v>2131.215415329221</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.771053098196</v>
+        <v>2131.215415329221</v>
       </c>
       <c r="T16" t="n">
-        <v>1803.480399803424</v>
+        <v>2082.300434221478</v>
       </c>
       <c r="U16" t="n">
-        <v>1523.345061429705</v>
+        <v>1802.165095847759</v>
       </c>
       <c r="V16" t="n">
-        <v>1523.345061429705</v>
+        <v>1520.453628455788</v>
       </c>
       <c r="W16" t="n">
-        <v>1248.492657602218</v>
+        <v>1245.601224628301</v>
       </c>
       <c r="X16" t="n">
-        <v>1005.928761048023</v>
+        <v>1003.037328074106</v>
       </c>
       <c r="Y16" t="n">
-        <v>779.5859927377655</v>
+        <v>776.6945597638485</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1741.37956509487</v>
+        <v>895.6330881347328</v>
       </c>
       <c r="C17" t="n">
-        <v>1571.669196165962</v>
+        <v>468.7323581480329</v>
       </c>
       <c r="D17" t="n">
-        <v>1148.376575350962</v>
+        <v>468.7323581480329</v>
       </c>
       <c r="E17" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="F17" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G17" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H17" t="n">
         <v>42.75541829589046</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103614</v>
+        <v>84.39494262103615</v>
       </c>
       <c r="J17" t="n">
         <v>222.2360596072044</v>
@@ -5521,7 +5521,7 @@
         <v>437.0691715610002</v>
       </c>
       <c r="L17" t="n">
-        <v>709.5851800848319</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M17" t="n">
         <v>1017.958031365649</v>
@@ -5533,7 +5533,7 @@
         <v>1626.510864636164</v>
       </c>
       <c r="P17" t="n">
-        <v>1872.202557977125</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q17" t="n">
         <v>2048.878716272599</v>
@@ -5542,25 +5542,25 @@
         <v>2137.770914794523</v>
       </c>
       <c r="S17" t="n">
-        <v>2137.770914794523</v>
+        <v>2123.592800958168</v>
       </c>
       <c r="T17" t="n">
-        <v>2137.770914794523</v>
+        <v>2123.592800958168</v>
       </c>
       <c r="U17" t="n">
-        <v>2137.770914794523</v>
+        <v>2123.592800958168</v>
       </c>
       <c r="V17" t="n">
-        <v>2137.770914794523</v>
+        <v>2123.592800958168</v>
       </c>
       <c r="W17" t="n">
-        <v>1741.37956509487</v>
+        <v>1727.201451258516</v>
       </c>
       <c r="X17" t="n">
-        <v>1741.37956509487</v>
+        <v>1315.481452426263</v>
       </c>
       <c r="Y17" t="n">
-        <v>1741.37956509487</v>
+        <v>1315.481452426263</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>42.75541829589046</v>
       </c>
       <c r="I18" t="n">
-        <v>62.98439029745212</v>
+        <v>62.98439029745214</v>
       </c>
       <c r="J18" t="n">
-        <v>142.0237151377161</v>
+        <v>404.4659091426543</v>
       </c>
       <c r="K18" t="n">
-        <v>289.8146695059643</v>
+        <v>552.2568635109025</v>
       </c>
       <c r="L18" t="n">
-        <v>758.5074531333025</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M18" t="n">
         <v>1002.337654088804</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>431.6727907347109</v>
+        <v>589.3092351300555</v>
       </c>
       <c r="C19" t="n">
-        <v>259.7002276136269</v>
+        <v>589.3092351300555</v>
       </c>
       <c r="D19" t="n">
-        <v>259.7002276136269</v>
+        <v>589.3092351300555</v>
       </c>
       <c r="E19" t="n">
-        <v>93.49202176648046</v>
+        <v>423.1010292829091</v>
       </c>
       <c r="F19" t="n">
-        <v>42.75541829589046</v>
+        <v>251.2392550574695</v>
       </c>
       <c r="G19" t="n">
-        <v>42.75541829589046</v>
+        <v>251.2392550574695</v>
       </c>
       <c r="H19" t="n">
-        <v>42.75541829589046</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I19" t="n">
         <v>42.75541829589046</v>
       </c>
       <c r="J19" t="n">
-        <v>84.71320548484806</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K19" t="n">
-        <v>321.3980373970701</v>
+        <v>244.402851647335</v>
       </c>
       <c r="L19" t="n">
-        <v>430.892527589118</v>
+        <v>353.897341839383</v>
       </c>
       <c r="M19" t="n">
-        <v>546.8685862260714</v>
+        <v>882.9956432510274</v>
       </c>
       <c r="N19" t="n">
-        <v>1059.396764209472</v>
+        <v>1395.523821234428</v>
       </c>
       <c r="O19" t="n">
-        <v>1539.553111280805</v>
+        <v>1875.680168305761</v>
       </c>
       <c r="P19" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q19" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="R19" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S19" t="n">
-        <v>1976.771053098196</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T19" t="n">
-        <v>1737.27866519234</v>
+        <v>1898.278526888667</v>
       </c>
       <c r="U19" t="n">
-        <v>1457.143326818622</v>
+        <v>1618.143188514949</v>
       </c>
       <c r="V19" t="n">
-        <v>1175.431859426651</v>
+        <v>1336.431721122978</v>
       </c>
       <c r="W19" t="n">
-        <v>900.5794555991638</v>
+        <v>1061.579317295491</v>
       </c>
       <c r="X19" t="n">
-        <v>658.0155590449689</v>
+        <v>819.015420741296</v>
       </c>
       <c r="Y19" t="n">
-        <v>431.6727907347109</v>
+        <v>779.4752038421211</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>469.6561482825904</v>
+        <v>1041.817488007519</v>
       </c>
       <c r="C20" t="n">
-        <v>42.75541829589046</v>
+        <v>614.9167580208189</v>
       </c>
       <c r="D20" t="n">
-        <v>42.75541829589046</v>
+        <v>468.7323581480329</v>
       </c>
       <c r="E20" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="F20" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G20" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H20" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I20" t="n">
         <v>84.39494262103608</v>
       </c>
       <c r="J20" t="n">
-        <v>222.2360596072042</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K20" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715610002</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5851800848318</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M20" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N20" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O20" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P20" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q20" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R20" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S20" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T20" t="n">
-        <v>2079.142258348449</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U20" t="n">
-        <v>2079.142258348449</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="V20" t="n">
-        <v>2079.142258348449</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="W20" t="n">
-        <v>1682.750908648796</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="X20" t="n">
-        <v>1271.030909816543</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="Y20" t="n">
-        <v>889.5045125741204</v>
+        <v>1461.665852299049</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C21" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D21" t="n">
         <v>377.0871448858306</v>
@@ -5822,22 +5822,22 @@
         <v>178.739380841672</v>
       </c>
       <c r="G21" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H21" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I21" t="n">
-        <v>62.98439029745212</v>
+        <v>62.98439029745215</v>
       </c>
       <c r="J21" t="n">
-        <v>142.0237151377161</v>
+        <v>404.4659091426543</v>
       </c>
       <c r="K21" t="n">
-        <v>289.8146695059643</v>
+        <v>552.2568635109025</v>
       </c>
       <c r="L21" t="n">
-        <v>496.065259128364</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M21" t="n">
         <v>1002.337654088804</v>
@@ -5873,10 +5873,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X21" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y21" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>380.0845988131532</v>
+        <v>522.9147253154349</v>
       </c>
       <c r="C22" t="n">
-        <v>208.1120356920692</v>
+        <v>522.9147253154349</v>
       </c>
       <c r="D22" t="n">
-        <v>208.1120356920692</v>
+        <v>359.5979524422056</v>
       </c>
       <c r="E22" t="n">
-        <v>208.1120356920692</v>
+        <v>343.903353649568</v>
       </c>
       <c r="F22" t="n">
-        <v>208.1120356920692</v>
+        <v>343.903353649568</v>
       </c>
       <c r="G22" t="n">
-        <v>42.75541829589046</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H22" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I22" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J22" t="n">
-        <v>84.71320548484806</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K22" t="n">
-        <v>166.4811349991141</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L22" t="n">
-        <v>652.364518782327</v>
+        <v>652.3645187823271</v>
       </c>
       <c r="M22" t="n">
-        <v>1181.462820193971</v>
+        <v>768.3405774192805</v>
       </c>
       <c r="N22" t="n">
-        <v>1437.099088512675</v>
+        <v>1280.868755402681</v>
       </c>
       <c r="O22" t="n">
-        <v>1539.553111280805</v>
+        <v>1761.025102474014</v>
       </c>
       <c r="P22" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q22" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R22" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S22" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T22" t="n">
-        <v>1737.27866519234</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U22" t="n">
-        <v>1457.143326818622</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="V22" t="n">
-        <v>1175.431859426651</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W22" t="n">
-        <v>900.5794555991638</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="X22" t="n">
-        <v>658.0155590449689</v>
+        <v>939.4234623377585</v>
       </c>
       <c r="Y22" t="n">
-        <v>431.6727907347109</v>
+        <v>713.0806940275005</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1189.407938699469</v>
+        <v>754.5538214144724</v>
       </c>
       <c r="C23" t="n">
-        <v>762.5072087127692</v>
+        <v>754.5538214144724</v>
       </c>
       <c r="D23" t="n">
-        <v>762.5072087127692</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="E23" t="n">
-        <v>762.5072087127692</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="F23" t="n">
-        <v>337.3830269021693</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="G23" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="H23" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I23" t="n">
         <v>101.7102154067076</v>
@@ -5992,7 +5992,7 @@
         <v>631.2805511005022</v>
       </c>
       <c r="K23" t="n">
-        <v>846.1136630542979</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L23" t="n">
         <v>1118.62967157813</v>
@@ -6001,40 +6001,40 @@
         <v>1427.002522858947</v>
       </c>
       <c r="N23" t="n">
-        <v>2170.377324993276</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O23" t="n">
-        <v>2464.817767993799</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P23" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q23" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278423</v>
       </c>
       <c r="R23" t="n">
-        <v>3003.534554078097</v>
+        <v>3003.534554078098</v>
       </c>
       <c r="S23" t="n">
-        <v>2944.905897632023</v>
+        <v>3003.534554078098</v>
       </c>
       <c r="T23" t="n">
-        <v>2732.766761627731</v>
+        <v>3003.534554078098</v>
       </c>
       <c r="U23" t="n">
-        <v>2474.572426706402</v>
+        <v>2745.340219156768</v>
       </c>
       <c r="V23" t="n">
-        <v>2117.083011832651</v>
+        <v>2387.850804283018</v>
       </c>
       <c r="W23" t="n">
-        <v>2020.976301823252</v>
+        <v>1991.459454583365</v>
       </c>
       <c r="X23" t="n">
-        <v>1609.256302990999</v>
+        <v>1579.739455751112</v>
       </c>
       <c r="Y23" t="n">
-        <v>1609.256302990999</v>
+        <v>1174.402185706002</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>615.7482796387122</v>
+        <v>615.7482796387123</v>
       </c>
       <c r="C24" t="n">
-        <v>498.242376156217</v>
+        <v>498.2423761562171</v>
       </c>
       <c r="D24" t="n">
         <v>394.4024176715021</v>
@@ -6056,40 +6056,40 @@
         <v>289.7004839444393</v>
       </c>
       <c r="F24" t="n">
-        <v>196.0546536273434</v>
+        <v>196.0546536273435</v>
       </c>
       <c r="G24" t="n">
-        <v>103.0748183734007</v>
+        <v>103.0748183734008</v>
       </c>
       <c r="H24" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I24" t="n">
-        <v>80.2996630831236</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J24" t="n">
-        <v>159.3389879233876</v>
+        <v>182.7962937677995</v>
       </c>
       <c r="K24" t="n">
-        <v>307.1299422916358</v>
+        <v>330.5872481360477</v>
       </c>
       <c r="L24" t="n">
-        <v>513.3805319140355</v>
+        <v>536.8378377584474</v>
       </c>
       <c r="M24" t="n">
-        <v>757.2107328695367</v>
+        <v>780.6680387139488</v>
       </c>
       <c r="N24" t="n">
-        <v>1009.835798503732</v>
+        <v>1033.293104348144</v>
       </c>
       <c r="O24" t="n">
-        <v>1237.327662526591</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P24" t="n">
-        <v>1416.768316177413</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q24" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R24" t="n">
         <v>1832.965147628227</v>
@@ -6110,10 +6110,10 @@
         <v>1047.84552393882</v>
       </c>
       <c r="X24" t="n">
-        <v>884.3681777054826</v>
+        <v>884.3681777054827</v>
       </c>
       <c r="Y24" t="n">
-        <v>744.675289058775</v>
+        <v>744.6752890587751</v>
       </c>
     </row>
     <row r="25">
@@ -6126,7 +6126,7 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C25" t="n">
-        <v>935.2978981851351</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D25" t="n">
         <v>771.9811253119058</v>
@@ -6138,46 +6138,46 @@
         <v>433.9111452393198</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5545278431409</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H25" t="n">
         <v>132.7632098856423</v>
       </c>
       <c r="I25" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="J25" t="n">
-        <v>102.0284782705195</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K25" t="n">
-        <v>431.0790168988077</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L25" t="n">
-        <v>883.12068640987</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M25" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N25" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O25" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P25" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q25" t="n">
-        <v>3003.534554078097</v>
+        <v>3003.534554078098</v>
       </c>
       <c r="R25" t="n">
-        <v>2996.979054612795</v>
+        <v>2996.979054612796</v>
       </c>
       <c r="S25" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381771</v>
       </c>
       <c r="T25" t="n">
-        <v>2603.042304475914</v>
+        <v>2603.042304475915</v>
       </c>
       <c r="U25" t="n">
         <v>2322.906966102196</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1189.407938699469</v>
+        <v>1252.995442670109</v>
       </c>
       <c r="C26" t="n">
-        <v>762.5072087127692</v>
+        <v>826.0947126834092</v>
       </c>
       <c r="D26" t="n">
-        <v>762.5072087127692</v>
+        <v>826.0947126834092</v>
       </c>
       <c r="E26" t="n">
         <v>762.5072087127692</v>
@@ -6226,28 +6226,28 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J26" t="n">
-        <v>239.5513323928759</v>
+        <v>596.1507915280436</v>
       </c>
       <c r="K26" t="n">
-        <v>701.6597934330183</v>
+        <v>810.9839034818394</v>
       </c>
       <c r="L26" t="n">
-        <v>974.17580195685</v>
+        <v>1083.499912005671</v>
       </c>
       <c r="M26" t="n">
-        <v>1282.548653237667</v>
+        <v>1391.872763286488</v>
       </c>
       <c r="N26" t="n">
-        <v>1596.661043507658</v>
+        <v>1705.985153556479</v>
       </c>
       <c r="O26" t="n">
-        <v>2340.035845641987</v>
+        <v>2000.425596557003</v>
       </c>
       <c r="P26" t="n">
-        <v>2585.727538982949</v>
+        <v>2246.117289897965</v>
       </c>
       <c r="Q26" t="n">
-        <v>2762.403697278422</v>
+        <v>2914.642355556173</v>
       </c>
       <c r="R26" t="n">
         <v>3003.534554078097</v>
@@ -6256,22 +6256,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>2944.905897632023</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U26" t="n">
-        <v>2686.711562710693</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V26" t="n">
-        <v>2417.367651522905</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="W26" t="n">
-        <v>2020.976301823252</v>
+        <v>2078.181077006749</v>
       </c>
       <c r="X26" t="n">
-        <v>1609.256302990999</v>
+        <v>2078.181077006749</v>
       </c>
       <c r="Y26" t="n">
-        <v>1609.256302990999</v>
+        <v>1672.843806961639</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I27" t="n">
-        <v>80.2996630831236</v>
+        <v>80.29966308312362</v>
       </c>
       <c r="J27" t="n">
-        <v>159.3389879233876</v>
+        <v>421.7811819283256</v>
       </c>
       <c r="K27" t="n">
-        <v>307.1299422916358</v>
+        <v>569.5721362965738</v>
       </c>
       <c r="L27" t="n">
-        <v>513.3805319140355</v>
+        <v>775.8227259189736</v>
       </c>
       <c r="M27" t="n">
-        <v>757.2107328695367</v>
+        <v>1019.652926874475</v>
       </c>
       <c r="N27" t="n">
-        <v>1009.835798503732</v>
+        <v>1272.27799250867</v>
       </c>
       <c r="O27" t="n">
-        <v>1237.327662526591</v>
+        <v>1499.76985653153</v>
       </c>
       <c r="P27" t="n">
         <v>1679.210510182351</v>
@@ -6375,34 +6375,34 @@
         <v>433.9111452393198</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5545278431407</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H28" t="n">
-        <v>132.763209885642</v>
+        <v>132.7632098856423</v>
       </c>
       <c r="I28" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="J28" t="n">
-        <v>179.9501949187404</v>
+        <v>102.0284782705195</v>
       </c>
       <c r="K28" t="n">
-        <v>509.0007335470286</v>
+        <v>431.0790168988077</v>
       </c>
       <c r="L28" t="n">
-        <v>994.8841173302415</v>
+        <v>916.9624006820206</v>
       </c>
       <c r="M28" t="n">
-        <v>1524.395656430017</v>
+        <v>1446.473939781796</v>
       </c>
       <c r="N28" t="n">
-        <v>2036.923834413417</v>
+        <v>1959.002117765196</v>
       </c>
       <c r="O28" t="n">
-        <v>2405.316750564379</v>
+        <v>2439.15846483653</v>
       </c>
       <c r="P28" t="n">
-        <v>2802.642500785833</v>
+        <v>2836.484215057983</v>
       </c>
       <c r="Q28" t="n">
         <v>3003.534554078097</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>887.5267542744834</v>
+        <v>2113.33753450824</v>
       </c>
       <c r="C29" t="n">
-        <v>887.5267542744834</v>
+        <v>1686.43680452154</v>
       </c>
       <c r="D29" t="n">
-        <v>887.5267542744834</v>
+        <v>1263.14418370654</v>
       </c>
       <c r="E29" t="n">
-        <v>887.5267542744834</v>
+        <v>837.1672438543975</v>
       </c>
       <c r="F29" t="n">
-        <v>462.4025724638836</v>
+        <v>412.0430620437977</v>
       </c>
       <c r="G29" t="n">
         <v>60.07069108156194</v>
@@ -6463,28 +6463,28 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J29" t="n">
-        <v>239.5513323928759</v>
+        <v>443.9121332502919</v>
       </c>
       <c r="K29" t="n">
-        <v>454.3844443466717</v>
+        <v>658.7452452040877</v>
       </c>
       <c r="L29" t="n">
-        <v>726.9004528705034</v>
+        <v>931.2612537279194</v>
       </c>
       <c r="M29" t="n">
-        <v>1035.27330415132</v>
+        <v>1239.634105008736</v>
       </c>
       <c r="N29" t="n">
-        <v>1778.648106285649</v>
+        <v>1553.746495278728</v>
       </c>
       <c r="O29" t="n">
-        <v>2492.274503919738</v>
+        <v>1848.186938279251</v>
       </c>
       <c r="P29" t="n">
-        <v>2737.9661972607</v>
+        <v>2093.878631620213</v>
       </c>
       <c r="Q29" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R29" t="n">
         <v>3003.534554078097</v>
@@ -6496,19 +6496,19 @@
         <v>2944.905897632023</v>
       </c>
       <c r="U29" t="n">
-        <v>2686.711562710693</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="V29" t="n">
-        <v>2520.823737143029</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="W29" t="n">
-        <v>2124.432387443376</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="X29" t="n">
-        <v>1712.712388611123</v>
+        <v>2533.18589879977</v>
       </c>
       <c r="Y29" t="n">
-        <v>1307.375118566013</v>
+        <v>2533.18589879977</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.2996630831236</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3389879233876</v>
+        <v>316.3256816434198</v>
       </c>
       <c r="K30" t="n">
-        <v>307.1299422916358</v>
+        <v>464.116636011668</v>
       </c>
       <c r="L30" t="n">
-        <v>513.3805319140355</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M30" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N30" t="n">
-        <v>1272.277992508671</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O30" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P30" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R30" t="n">
         <v>1832.965147628227</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1107.27046130622</v>
+        <v>1107.270461306219</v>
       </c>
       <c r="C31" t="n">
-        <v>935.2978981851355</v>
+        <v>935.2978981851352</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9811253119062</v>
+        <v>771.9811253119059</v>
       </c>
       <c r="E31" t="n">
-        <v>605.7729194647598</v>
+        <v>605.7729194647594</v>
       </c>
       <c r="F31" t="n">
-        <v>433.9111452393203</v>
+        <v>433.9111452393198</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5545278431414</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H31" t="n">
-        <v>132.7632098856425</v>
+        <v>132.7632098856423</v>
       </c>
       <c r="I31" t="n">
         <v>60.07069108156194</v>
@@ -6645,13 +6645,13 @@
         <v>3003.534554078097</v>
       </c>
       <c r="R31" t="n">
-        <v>2996.979054612796</v>
+        <v>2996.979054612795</v>
       </c>
       <c r="S31" t="n">
         <v>2842.53469238177</v>
       </c>
       <c r="T31" t="n">
-        <v>2603.042304475915</v>
+        <v>2603.042304475914</v>
       </c>
       <c r="U31" t="n">
         <v>2322.906966102196</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1246.612713882966</v>
+        <v>1334.464433559304</v>
       </c>
       <c r="C32" t="n">
-        <v>885.6951932788834</v>
+        <v>1334.464433559304</v>
       </c>
       <c r="D32" t="n">
-        <v>462.4025724638836</v>
+        <v>911.1718127443041</v>
       </c>
       <c r="E32" t="n">
-        <v>462.4025724638836</v>
+        <v>485.1948728921618</v>
       </c>
       <c r="F32" t="n">
-        <v>462.4025724638836</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="G32" t="n">
         <v>60.07069108156194</v>
@@ -6700,28 +6700,28 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J32" t="n">
-        <v>239.5513323928759</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K32" t="n">
-        <v>454.3844443466717</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L32" t="n">
-        <v>1146.086407504068</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M32" t="n">
-        <v>1454.459258784885</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N32" t="n">
-        <v>2197.834060919214</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O32" t="n">
-        <v>2492.274503919738</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P32" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q32" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R32" t="n">
         <v>3003.534554078097</v>
@@ -6736,16 +6736,16 @@
         <v>2474.572426706402</v>
       </c>
       <c r="V32" t="n">
-        <v>2474.572426706402</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W32" t="n">
-        <v>2078.181077006749</v>
+        <v>1746.184432391557</v>
       </c>
       <c r="X32" t="n">
-        <v>1666.461078174496</v>
+        <v>1334.464433559304</v>
       </c>
       <c r="Y32" t="n">
-        <v>1666.461078174496</v>
+        <v>1334.464433559304</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>80.2996630831236</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J33" t="n">
-        <v>159.3389879233876</v>
+        <v>316.3256816434198</v>
       </c>
       <c r="K33" t="n">
-        <v>307.1299422916358</v>
+        <v>464.116636011668</v>
       </c>
       <c r="L33" t="n">
-        <v>513.3805319140355</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M33" t="n">
-        <v>757.2107328695367</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N33" t="n">
-        <v>1272.277992508671</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O33" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P33" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q33" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R33" t="n">
         <v>1832.965147628227</v>
@@ -6837,19 +6837,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C34" t="n">
-        <v>935.2978981851351</v>
+        <v>935.2978981851346</v>
       </c>
       <c r="D34" t="n">
-        <v>771.9811253119058</v>
+        <v>771.9811253119053</v>
       </c>
       <c r="E34" t="n">
-        <v>605.7729194647593</v>
+        <v>605.7729194647588</v>
       </c>
       <c r="F34" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393194</v>
       </c>
       <c r="G34" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H34" t="n">
         <v>132.7632098856423</v>
@@ -6858,25 +6858,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J34" t="n">
-        <v>179.9501949187404</v>
+        <v>102.0284782705195</v>
       </c>
       <c r="K34" t="n">
-        <v>509.0007335470286</v>
+        <v>431.0790168988077</v>
       </c>
       <c r="L34" t="n">
-        <v>994.8841173302415</v>
+        <v>916.9624006820206</v>
       </c>
       <c r="M34" t="n">
-        <v>1412.632225509645</v>
+        <v>1446.473939781796</v>
       </c>
       <c r="N34" t="n">
-        <v>1925.160403493045</v>
+        <v>1959.002117765196</v>
       </c>
       <c r="O34" t="n">
-        <v>2405.316750564379</v>
+        <v>2439.15846483653</v>
       </c>
       <c r="P34" t="n">
-        <v>2802.642500785833</v>
+        <v>2836.484215057983</v>
       </c>
       <c r="Q34" t="n">
         <v>3003.534554078097</v>
@@ -6885,25 +6885,25 @@
         <v>2996.979054612795</v>
       </c>
       <c r="S34" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T34" t="n">
         <v>2603.042304475914</v>
       </c>
       <c r="U34" t="n">
-        <v>2322.906966102196</v>
+        <v>2322.906966102195</v>
       </c>
       <c r="V34" t="n">
-        <v>2041.195498710225</v>
+        <v>2041.195498710224</v>
       </c>
       <c r="W34" t="n">
-        <v>1766.343094882738</v>
+        <v>1766.343094882737</v>
       </c>
       <c r="X34" t="n">
-        <v>1523.779198328543</v>
+        <v>1523.779198328542</v>
       </c>
       <c r="Y34" t="n">
-        <v>1297.436430018285</v>
+        <v>1297.436430018284</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>469.6561482825904</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="C35" t="n">
-        <v>42.75541829589046</v>
+        <v>428.0272928627255</v>
       </c>
       <c r="D35" t="n">
-        <v>42.75541829589046</v>
+        <v>428.0272928627255</v>
       </c>
       <c r="E35" t="n">
-        <v>42.75541829589046</v>
+        <v>428.0272928627255</v>
       </c>
       <c r="F35" t="n">
-        <v>42.75541829589046</v>
+        <v>428.0272928627255</v>
       </c>
       <c r="G35" t="n">
-        <v>42.75541829589046</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H35" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072046</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L35" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848321</v>
       </c>
       <c r="M35" t="n">
         <v>1017.958031365649</v>
@@ -6955,34 +6955,34 @@
         <v>1626.510864636164</v>
       </c>
       <c r="P35" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q35" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R35" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S35" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T35" t="n">
-        <v>2064.051196325233</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U35" t="n">
-        <v>2064.051196325233</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V35" t="n">
-        <v>1706.561781451483</v>
+        <v>1251.319372549078</v>
       </c>
       <c r="W35" t="n">
-        <v>1706.561781451483</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="X35" t="n">
-        <v>1294.84178261923</v>
+        <v>854.9280228494254</v>
       </c>
       <c r="Y35" t="n">
-        <v>889.5045125741204</v>
+        <v>854.9280228494254</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C36" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D36" t="n">
         <v>377.0871448858306</v>
@@ -7007,37 +7007,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G36" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H36" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I36" t="n">
-        <v>62.98439029745212</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J36" t="n">
-        <v>142.0237151377161</v>
+        <v>165.481020982128</v>
       </c>
       <c r="K36" t="n">
-        <v>289.8146695059643</v>
+        <v>313.2719753503762</v>
       </c>
       <c r="L36" t="n">
-        <v>496.065259128364</v>
+        <v>519.522564972776</v>
       </c>
       <c r="M36" t="n">
-        <v>739.8954600838654</v>
+        <v>763.3527659282773</v>
       </c>
       <c r="N36" t="n">
-        <v>992.5205257180608</v>
+        <v>1015.977831562473</v>
       </c>
       <c r="O36" t="n">
-        <v>1220.01238974092</v>
+        <v>1243.469695585332</v>
       </c>
       <c r="P36" t="n">
-        <v>1399.453043391742</v>
+        <v>1422.910349236154</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R36" t="n">
         <v>1815.649874842555</v>
@@ -7058,10 +7058,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X36" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y36" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>658.0155590449689</v>
+        <v>402.5066837189733</v>
       </c>
       <c r="C37" t="n">
-        <v>658.0155590449689</v>
+        <v>230.5341205978893</v>
       </c>
       <c r="D37" t="n">
-        <v>494.6987861717396</v>
+        <v>67.21734772466002</v>
       </c>
       <c r="E37" t="n">
-        <v>328.4905803245931</v>
+        <v>67.21734772466002</v>
       </c>
       <c r="F37" t="n">
-        <v>328.4905803245931</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2392550574695</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H37" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I37" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J37" t="n">
-        <v>162.6349221330689</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K37" t="n">
-        <v>244.402851647335</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L37" t="n">
-        <v>582.2660249670167</v>
+        <v>652.3645187823271</v>
       </c>
       <c r="M37" t="n">
-        <v>698.2420836039702</v>
+        <v>1181.462820193972</v>
       </c>
       <c r="N37" t="n">
-        <v>1210.77026158737</v>
+        <v>1693.990998177372</v>
       </c>
       <c r="O37" t="n">
-        <v>1690.926608658704</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P37" t="n">
-        <v>2088.252358880158</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q37" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R37" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S37" t="n">
-        <v>1976.771053098196</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T37" t="n">
-        <v>1737.27866519234</v>
+        <v>1898.278526888668</v>
       </c>
       <c r="U37" t="n">
-        <v>1457.143326818622</v>
+        <v>1618.14318851495</v>
       </c>
       <c r="V37" t="n">
-        <v>1175.431859426651</v>
+        <v>1336.431721122979</v>
       </c>
       <c r="W37" t="n">
-        <v>900.5794555991638</v>
+        <v>1061.579317295492</v>
       </c>
       <c r="X37" t="n">
-        <v>658.0155590449689</v>
+        <v>819.0154207412969</v>
       </c>
       <c r="Y37" t="n">
-        <v>658.0155590449689</v>
+        <v>592.672652431039</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1717.922550502993</v>
+        <v>1309.932844642446</v>
       </c>
       <c r="C38" t="n">
-        <v>1573.500757161562</v>
+        <v>883.0321146557465</v>
       </c>
       <c r="D38" t="n">
-        <v>1573.500757161562</v>
+        <v>883.0321146557465</v>
       </c>
       <c r="E38" t="n">
-        <v>1147.523817309419</v>
+        <v>457.055174803604</v>
       </c>
       <c r="F38" t="n">
-        <v>722.3996354988195</v>
+        <v>457.055174803604</v>
       </c>
       <c r="G38" t="n">
-        <v>320.0677541164978</v>
+        <v>54.72329342128234</v>
       </c>
       <c r="H38" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103614</v>
+        <v>84.39494262103617</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715610003</v>
       </c>
       <c r="L38" t="n">
-        <v>709.5851800848318</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M38" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N38" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O38" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P38" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q38" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R38" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S38" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T38" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U38" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V38" t="n">
-        <v>2137.770914794523</v>
+        <v>1721.652843474699</v>
       </c>
       <c r="W38" t="n">
-        <v>2137.770914794523</v>
+        <v>1721.652843474699</v>
       </c>
       <c r="X38" t="n">
-        <v>2137.770914794523</v>
+        <v>1309.932844642446</v>
       </c>
       <c r="Y38" t="n">
-        <v>2137.770914794523</v>
+        <v>1309.932844642446</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>920.5540468050084</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C39" t="n">
-        <v>803.0481433225132</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D39" t="n">
-        <v>699.2081848377982</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E39" t="n">
-        <v>594.5062511107354</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F39" t="n">
-        <v>500.8604207936396</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G39" t="n">
-        <v>407.8805855396969</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H39" t="n">
-        <v>364.8764582478581</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I39" t="n">
-        <v>385.1054302494197</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J39" t="n">
-        <v>464.1447550896837</v>
+        <v>299.0104088577484</v>
       </c>
       <c r="K39" t="n">
-        <v>611.9357094579318</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L39" t="n">
-        <v>818.1862990803315</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M39" t="n">
-        <v>1062.016500035833</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N39" t="n">
-        <v>1314.641565670028</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O39" t="n">
-        <v>1804.575623697826</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P39" t="n">
-        <v>1984.016277348648</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q39" t="n">
-        <v>2095.855732839467</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R39" t="n">
-        <v>2137.770914794523</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S39" t="n">
-        <v>2076.394567347004</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T39" t="n">
-        <v>1938.843349494019</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U39" t="n">
-        <v>1754.145807132632</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V39" t="n">
-        <v>1549.172668271899</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W39" t="n">
-        <v>1352.651291105116</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X39" t="n">
-        <v>1189.173944871779</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y39" t="n">
-        <v>1049.481056225071</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1089.955188520548</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="C40" t="n">
-        <v>917.9826253994637</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="D40" t="n">
-        <v>754.6658525262344</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="E40" t="n">
-        <v>588.4576466790879</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="F40" t="n">
         <v>416.5958724536483</v>
@@ -7329,55 +7329,55 @@
         <v>115.4479370999708</v>
       </c>
       <c r="I40" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J40" t="n">
-        <v>162.6349221330689</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K40" t="n">
-        <v>458.9956455541968</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L40" t="n">
-        <v>944.8790293374096</v>
+        <v>601.1799509534051</v>
       </c>
       <c r="M40" t="n">
-        <v>1473.977330749054</v>
+        <v>859.6247907993799</v>
       </c>
       <c r="N40" t="n">
-        <v>1588.472585890574</v>
+        <v>1372.15296878278</v>
       </c>
       <c r="O40" t="n">
-        <v>1690.926608658704</v>
+        <v>1852.309315854113</v>
       </c>
       <c r="P40" t="n">
-        <v>2088.252358880158</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q40" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R40" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S40" t="n">
-        <v>2137.770914794523</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T40" t="n">
-        <v>2137.770914794523</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U40" t="n">
-        <v>2137.770914794523</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="V40" t="n">
-        <v>1856.059447402552</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W40" t="n">
-        <v>1581.207043575065</v>
+        <v>907.1349550644663</v>
       </c>
       <c r="X40" t="n">
-        <v>1338.64314702087</v>
+        <v>664.5710585102714</v>
       </c>
       <c r="Y40" t="n">
-        <v>1112.300378710612</v>
+        <v>438.2282902000135</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>722.3996354988195</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="C41" t="n">
-        <v>722.3996354988195</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="D41" t="n">
-        <v>722.3996354988195</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="E41" t="n">
-        <v>722.3996354988195</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="F41" t="n">
-        <v>722.3996354988195</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G41" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H41" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103614</v>
+        <v>84.39494262103617</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715610012</v>
       </c>
       <c r="L41" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848329</v>
       </c>
       <c r="M41" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N41" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O41" t="n">
-        <v>1626.510864636163</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P41" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q41" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R41" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S41" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T41" t="n">
-        <v>1867.003122344157</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U41" t="n">
-        <v>1867.003122344157</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="V41" t="n">
-        <v>1509.513707470407</v>
+        <v>1463.45850855337</v>
       </c>
       <c r="W41" t="n">
-        <v>1134.119634331072</v>
+        <v>1276.655662801995</v>
       </c>
       <c r="X41" t="n">
-        <v>722.3996354988195</v>
+        <v>864.9356639697422</v>
       </c>
       <c r="Y41" t="n">
-        <v>722.3996354988195</v>
+        <v>864.9356639697422</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C42" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D42" t="n">
         <v>377.0871448858306</v>
@@ -7481,37 +7481,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G42" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H42" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I42" t="n">
-        <v>62.98439029745212</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J42" t="n">
-        <v>142.0237151377161</v>
+        <v>299.0104088577484</v>
       </c>
       <c r="K42" t="n">
-        <v>289.8146695059643</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L42" t="n">
-        <v>496.0652591283639</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M42" t="n">
-        <v>739.8954600838651</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N42" t="n">
-        <v>992.5205257180605</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O42" t="n">
-        <v>1220.012389740919</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P42" t="n">
-        <v>1399.453043391741</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q42" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R42" t="n">
         <v>1815.649874842555</v>
@@ -7532,10 +7532,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X42" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>516.3592258501324</v>
+        <v>772.3376854341138</v>
       </c>
       <c r="C43" t="n">
-        <v>344.3866627290483</v>
+        <v>600.3651223130298</v>
       </c>
       <c r="D43" t="n">
-        <v>181.069889855819</v>
+        <v>437.0483494398005</v>
       </c>
       <c r="E43" t="n">
-        <v>181.069889855819</v>
+        <v>379.9738099175088</v>
       </c>
       <c r="F43" t="n">
-        <v>178.5467362533892</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="G43" t="n">
-        <v>178.5467362533892</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H43" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I43" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J43" t="n">
-        <v>162.6349221330689</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K43" t="n">
-        <v>491.685460761357</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L43" t="n">
-        <v>977.5688445445699</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M43" t="n">
-        <v>1506.667145956214</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N43" t="n">
-        <v>1621.162401097735</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O43" t="n">
-        <v>1852.309315854113</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P43" t="n">
-        <v>1936.878861502259</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q43" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R43" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S43" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T43" t="n">
-        <v>1737.27866519234</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U43" t="n">
-        <v>1457.143326818622</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="V43" t="n">
-        <v>1175.431859426651</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="W43" t="n">
-        <v>1175.431859426651</v>
+        <v>1188.846422456437</v>
       </c>
       <c r="X43" t="n">
-        <v>932.8679628724559</v>
+        <v>1188.846422456437</v>
       </c>
       <c r="Y43" t="n">
-        <v>706.525194562198</v>
+        <v>962.5036541461795</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>467.8796001064903</v>
+        <v>2079.142258348448</v>
       </c>
       <c r="C44" t="n">
-        <v>467.8796001064903</v>
+        <v>1652.241528361748</v>
       </c>
       <c r="D44" t="n">
-        <v>467.8796001064903</v>
+        <v>1228.948907546748</v>
       </c>
       <c r="E44" t="n">
-        <v>467.8796001064903</v>
+        <v>802.9719676946057</v>
       </c>
       <c r="F44" t="n">
-        <v>42.75541829589046</v>
+        <v>377.8477858840059</v>
       </c>
       <c r="G44" t="n">
-        <v>42.75541829589046</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H44" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589044</v>
       </c>
       <c r="I44" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103614</v>
       </c>
       <c r="J44" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K44" t="n">
-        <v>437.0691715610001</v>
+        <v>437.0691715610003</v>
       </c>
       <c r="L44" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848311</v>
       </c>
       <c r="M44" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.958031365648</v>
       </c>
       <c r="N44" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635639</v>
       </c>
       <c r="O44" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636163</v>
       </c>
       <c r="P44" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977125</v>
       </c>
       <c r="Q44" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.878716272598</v>
       </c>
       <c r="R44" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="S44" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.142258348448</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.003122344157</v>
+        <v>2079.142258348448</v>
       </c>
       <c r="U44" t="n">
-        <v>1608.808787422828</v>
+        <v>2079.142258348448</v>
       </c>
       <c r="V44" t="n">
-        <v>1608.808787422828</v>
+        <v>2079.142258348448</v>
       </c>
       <c r="W44" t="n">
-        <v>1212.417437723175</v>
+        <v>2079.142258348448</v>
       </c>
       <c r="X44" t="n">
-        <v>1212.417437723175</v>
+        <v>2079.142258348448</v>
       </c>
       <c r="Y44" t="n">
-        <v>887.7279643980203</v>
+        <v>2079.142258348448</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.5540468050084</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C45" t="n">
-        <v>803.0481433225132</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D45" t="n">
-        <v>699.2081848377982</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E45" t="n">
-        <v>594.5062511107354</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F45" t="n">
-        <v>500.8604207936396</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G45" t="n">
-        <v>407.8805855396969</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H45" t="n">
-        <v>364.8764582478581</v>
+        <v>42.75541829589044</v>
       </c>
       <c r="I45" t="n">
-        <v>385.1054302494197</v>
+        <v>86.44169614186396</v>
       </c>
       <c r="J45" t="n">
-        <v>621.1314488097171</v>
+        <v>165.481020982128</v>
       </c>
       <c r="K45" t="n">
-        <v>768.9224031779652</v>
+        <v>313.2719753503762</v>
       </c>
       <c r="L45" t="n">
-        <v>975.1729928003648</v>
+        <v>519.522564972776</v>
       </c>
       <c r="M45" t="n">
-        <v>1219.003193755866</v>
+        <v>763.3527659282773</v>
       </c>
       <c r="N45" t="n">
-        <v>1471.628259390061</v>
+        <v>1015.977831562473</v>
       </c>
       <c r="O45" t="n">
-        <v>1699.12012341292</v>
+        <v>1243.469695585332</v>
       </c>
       <c r="P45" t="n">
-        <v>1878.560777063742</v>
+        <v>1422.910349236154</v>
       </c>
       <c r="Q45" t="n">
-        <v>1990.400232554562</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R45" t="n">
-        <v>2137.770914794523</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S45" t="n">
-        <v>2076.394567347004</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T45" t="n">
-        <v>1938.843349494019</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U45" t="n">
-        <v>1754.145807132632</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V45" t="n">
-        <v>1549.172668271899</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W45" t="n">
-        <v>1352.651291105116</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X45" t="n">
-        <v>1189.173944871779</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y45" t="n">
-        <v>1049.481056225071</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1017.262669716467</v>
+        <v>1089.955188520548</v>
       </c>
       <c r="C46" t="n">
-        <v>845.2901065953832</v>
+        <v>917.9826253994636</v>
       </c>
       <c r="D46" t="n">
-        <v>681.9733337221539</v>
+        <v>754.6658525262343</v>
       </c>
       <c r="E46" t="n">
-        <v>515.7651278750075</v>
+        <v>588.4576466790878</v>
       </c>
       <c r="F46" t="n">
-        <v>343.9033536495679</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G46" t="n">
-        <v>178.5467362533892</v>
+        <v>251.2392550574695</v>
       </c>
       <c r="H46" t="n">
-        <v>42.75541829589046</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I46" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589044</v>
       </c>
       <c r="J46" t="n">
-        <v>84.71320548484803</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K46" t="n">
-        <v>306.3087174642592</v>
+        <v>306.3087174642585</v>
       </c>
       <c r="L46" t="n">
-        <v>415.8032076563071</v>
+        <v>415.8032076563064</v>
       </c>
       <c r="M46" t="n">
-        <v>944.9015090679516</v>
+        <v>944.9015090679507</v>
       </c>
       <c r="N46" t="n">
-        <v>1059.396764209472</v>
+        <v>1059.396764209471</v>
       </c>
       <c r="O46" t="n">
-        <v>1539.553111280805</v>
+        <v>1539.553111280804</v>
       </c>
       <c r="P46" t="n">
-        <v>1936.878861502259</v>
+        <v>1936.878861502258</v>
       </c>
       <c r="Q46" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="R46" t="n">
-        <v>2137.770914794523</v>
+        <v>2131.21541532922</v>
       </c>
       <c r="S46" t="n">
-        <v>2137.770914794523</v>
+        <v>1976.771053098195</v>
       </c>
       <c r="T46" t="n">
-        <v>1898.278526888667</v>
+        <v>1737.278665192339</v>
       </c>
       <c r="U46" t="n">
-        <v>1618.143188514949</v>
+        <v>1457.143326818621</v>
       </c>
       <c r="V46" t="n">
-        <v>1618.143188514949</v>
+        <v>1175.43185942665</v>
       </c>
       <c r="W46" t="n">
-        <v>1343.290784687462</v>
+        <v>1175.43185942665</v>
       </c>
       <c r="X46" t="n">
-        <v>1243.605438026725</v>
+        <v>1175.43185942665</v>
       </c>
       <c r="Y46" t="n">
-        <v>1017.262669716467</v>
+        <v>1175.43185942665</v>
       </c>
     </row>
   </sheetData>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>158.5724178990219</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>265.0931252575133</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>230.6754375026605</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>81.46648476014882</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>134.8781695713337</v>
       </c>
       <c r="K15" t="n">
-        <v>265.0931252575136</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9096,10 +9096,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>331.2468980066363</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>310.7109398867607</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
@@ -9242,13 +9242,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>265.0931252575132</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>265.0931252575137</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>156.4817195938949</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>417.29519472191</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
@@ -9339,10 +9339,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>129.2956009356064</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>265.0931252575132</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>265.0931252575137</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9567,19 +9567,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>417.2951947219101</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>142.5666799769532</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>245.1087987454527</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9649,19 +9649,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>433.5983958225634</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>27.73407669286746</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>307.5560500126521</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>265.0931252575135</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>346.0072518373883</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891816</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>360.2014738739067</v>
       </c>
       <c r="K26" t="n">
-        <v>249.7730798851986</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9889,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>453.4690496301064</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>265.0931252575131</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>265.0931252575135</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
@@ -10047,13 +10047,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>268.6251448311431</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>118.7189728340893</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>206.4250513711272</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10123,19 +10123,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>433.5983958225634</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>423.4201561955203</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>265.0931252575136</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>423.42015619552</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>433.5983958225635</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>307.5560500126511</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>265.0931252575137</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10515,7 +10515,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>304.8202520630811</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>118.7189728340893</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>265.0931252575135</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>230.6754375026604</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>209.331103319707</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>134.8781695713337</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>265.0931252575139</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>216.760397885719</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>417.2951947219101</v>
+        <v>143.9078598070922</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>134.8781695713337</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>265.093125257514</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11226,16 +11226,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>417.2951947219101</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>129.9928201901494</v>
+        <v>231.3726567572042</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
         <v>152.9025226039384</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>158.5724178990236</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>141.2399822880254</v>
+        <v>62.53117759285195</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>417.2951947219101</v>
+        <v>417.2951947219099</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -23263,10 +23263,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>350.4005673940958</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>210.0177446442482</v>
       </c>
       <c r="U11" t="n">
-        <v>255.612391572116</v>
+        <v>133.2649862404457</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.7782651876608</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>109.8928450888818</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161367</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.0177446442483</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.51920210130589</v>
+        <v>393.2526876732602</v>
       </c>
     </row>
     <row r="15">
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T16" t="n">
-        <v>65.53971726497275</v>
+        <v>188.6716327301309</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>254.6184574472138</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161367</v>
+        <v>44.00603718362277</v>
       </c>
       <c r="T17" t="n">
         <v>210.0177446442483</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>119.9139190473011</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.7030512222169</v>
       </c>
       <c r="H19" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>184.9345258969722</v>
       </c>
     </row>
     <row r="20">
@@ -23974,10 +23974,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>274.3371387327916</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>255.612391572116</v>
@@ -24031,13 +24031,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>23.57276407466043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>137.1919990226029</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>149.0084709839637</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>71.96559361603954</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>129.8299581457669</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>297.2817932933511</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24451,7 +24451,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>358.7655415226874</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>87.26404864910262</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>49.85591531588506</v>
       </c>
       <c r="H29" t="n">
         <v>274.5392124624013</v>
@@ -24736,19 +24736,19 @@
         <v>210.0177446442483</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V29" t="n">
-        <v>189.6855734130251</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>65.32337728879122</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H32" t="n">
         <v>274.5392124624013</v>
@@ -24976,10 +24976,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>25.23784255597292</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3085625684984</v>
+        <v>291.4286192097331</v>
       </c>
       <c r="H35" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>195.0775932412652</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>145.9258463487033</v>
       </c>
       <c r="G37" t="n">
-        <v>87.22423920776461</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>279.6541472788163</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>262.6910160882633</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161368</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>210.0177446442483</v>
@@ -25450,13 +25450,13 @@
         <v>255.612391572116</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>166.1425707367812</v>
+        <v>166.8482154560435</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648588</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S40" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U41" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>20.7873037947154</v>
+        <v>207.4926189087957</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>108.0423296616062</v>
       </c>
       <c r="F43" t="n">
-        <v>167.6452344167796</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
-        <v>71.96559361603956</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3085625684984</v>
+        <v>341.1063311186654</v>
       </c>
       <c r="H44" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>79.8413187527554</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>103.6424048279037</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603956</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.489944470648588</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>141.4497643945236</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>334743.9349796517</v>
+        <v>334743.9349796515</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>334743.9349796516</v>
+        <v>334743.9349796515</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>334743.9349796516</v>
+        <v>334743.9349796517</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>452972.2007168868</v>
+        <v>452972.200716887</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>452972.2007168869</v>
+        <v>452972.2007168868</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>334743.9349796516</v>
+        <v>334743.9349796517</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>334743.9349796516</v>
+        <v>334743.9349796518</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>334743.9349796516</v>
+        <v>334743.9349796517</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>334743.9349796517</v>
+        <v>334743.9349796515</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>473349.6994154218</v>
       </c>
       <c r="C2" t="n">
-        <v>473349.6994154217</v>
+        <v>473349.6994154218</v>
       </c>
       <c r="D2" t="n">
         <v>473349.6994154219</v>
       </c>
       <c r="E2" t="n">
-        <v>281477.9391068872</v>
+        <v>281477.9391068871</v>
       </c>
       <c r="F2" t="n">
-        <v>281477.9391068873</v>
+        <v>281477.9391068871</v>
       </c>
       <c r="G2" t="n">
         <v>281477.9391068871</v>
@@ -26334,28 +26334,28 @@
         <v>281477.9391068872</v>
       </c>
       <c r="I2" t="n">
-        <v>353269.6521726172</v>
+        <v>353269.6521726171</v>
       </c>
       <c r="J2" t="n">
-        <v>353269.6521726173</v>
+        <v>353269.6521726171</v>
       </c>
       <c r="K2" t="n">
-        <v>353269.6521726173</v>
+        <v>353269.652172617</v>
       </c>
       <c r="L2" t="n">
-        <v>353269.6521726171</v>
+        <v>353269.652172617</v>
       </c>
       <c r="M2" t="n">
         <v>281477.9391068871</v>
       </c>
       <c r="N2" t="n">
+        <v>281477.9391068871</v>
+      </c>
+      <c r="O2" t="n">
         <v>281477.9391068872</v>
       </c>
-      <c r="O2" t="n">
-        <v>281477.939106887</v>
-      </c>
       <c r="P2" t="n">
-        <v>281477.9391068873</v>
+        <v>281477.9391068871</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>556689.6559222537</v>
+        <v>556689.6559222536</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.353429288428743e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>57556.18318048184</v>
+        <v>57556.18318048181</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>321757.302549922</v>
       </c>
       <c r="E4" t="n">
-        <v>19590.20678464903</v>
+        <v>19590.20678464904</v>
       </c>
       <c r="F4" t="n">
-        <v>19590.20678464905</v>
+        <v>19590.20678464904</v>
       </c>
       <c r="G4" t="n">
-        <v>19590.20678464905</v>
+        <v>19590.20678464904</v>
       </c>
       <c r="H4" t="n">
         <v>19590.20678464905</v>
@@ -26441,25 +26441,25 @@
         <v>57457.91431298888</v>
       </c>
       <c r="J4" t="n">
-        <v>57457.91431298888</v>
+        <v>57457.91431298887</v>
       </c>
       <c r="K4" t="n">
-        <v>57457.91431298889</v>
+        <v>57457.91431298885</v>
       </c>
       <c r="L4" t="n">
-        <v>57457.91431298888</v>
+        <v>57457.91431298884</v>
       </c>
       <c r="M4" t="n">
         <v>19590.20678464904</v>
       </c>
       <c r="N4" t="n">
-        <v>19590.20678464905</v>
+        <v>19590.20678464908</v>
       </c>
       <c r="O4" t="n">
-        <v>19590.20678464905</v>
+        <v>19590.20678464908</v>
       </c>
       <c r="P4" t="n">
-        <v>19590.20678464906</v>
+        <v>19590.20678464903</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650123</v>
       </c>
       <c r="F5" t="n">
         <v>43269.71441650124</v>
@@ -26490,7 +26490,7 @@
         <v>43269.71441650124</v>
       </c>
       <c r="I5" t="n">
-        <v>56429.32173361156</v>
+        <v>56429.32173361158</v>
       </c>
       <c r="J5" t="n">
         <v>56429.32173361156</v>
@@ -26505,13 +26505,13 @@
         <v>43269.71441650124</v>
       </c>
       <c r="N5" t="n">
-        <v>43269.71441650123</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="O5" t="n">
-        <v>43269.71441650123</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="P5" t="n">
-        <v>43269.71441650123</v>
+        <v>43269.71441650122</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117964.7968654998</v>
+        <v>117943.0832240035</v>
       </c>
       <c r="C6" t="n">
-        <v>117964.7968654997</v>
+        <v>117943.0832240035</v>
       </c>
       <c r="D6" t="n">
-        <v>117964.7968654999</v>
+        <v>117943.0832240035</v>
       </c>
       <c r="E6" t="n">
-        <v>-338071.6380165168</v>
+        <v>-338674.7812347056</v>
       </c>
       <c r="F6" t="n">
-        <v>218618.0179057372</v>
+        <v>218014.874687548</v>
       </c>
       <c r="G6" t="n">
-        <v>218618.0179057369</v>
+        <v>218014.874687548</v>
       </c>
       <c r="H6" t="n">
-        <v>218618.0179057369</v>
+        <v>218014.8746875479</v>
       </c>
       <c r="I6" t="n">
-        <v>181826.232945535</v>
+        <v>181440.6403729997</v>
       </c>
       <c r="J6" t="n">
-        <v>239382.4161260169</v>
+        <v>238996.8235534815</v>
       </c>
       <c r="K6" t="n">
-        <v>239382.4161260169</v>
+        <v>238996.8235534815</v>
       </c>
       <c r="L6" t="n">
-        <v>239382.4161260167</v>
+        <v>238996.8235534815</v>
       </c>
       <c r="M6" t="n">
-        <v>139370.6926341292</v>
+        <v>138767.5494159403</v>
       </c>
       <c r="N6" t="n">
-        <v>218618.0179057369</v>
+        <v>218014.8746875479</v>
       </c>
       <c r="O6" t="n">
-        <v>218618.0179057367</v>
+        <v>218014.874687548</v>
       </c>
       <c r="P6" t="n">
-        <v>218618.017905737</v>
+        <v>218014.874687548</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="F3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="G3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="H3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="I3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="J3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="K3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="L3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="M3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="N3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="O3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="P3" t="n">
-        <v>494.2934179644259</v>
+        <v>494.2934179644261</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="F4" t="n">
         <v>534.4427286986307</v>
@@ -26807,10 +26807,10 @@
         <v>534.4427286986307</v>
       </c>
       <c r="H4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="I4" t="n">
-        <v>750.8836385195242</v>
+        <v>750.8836385195244</v>
       </c>
       <c r="J4" t="n">
         <v>750.8836385195242</v>
@@ -26822,16 +26822,16 @@
         <v>750.8836385195242</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="O4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="P4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986305</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>5.016249600379316e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>216.4409098208936</v>
+        <v>216.4409098208935</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>5.016249600379316e-13</v>
       </c>
     </row>
   </sheetData>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.987109217947441</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H11" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I11" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J11" t="n">
         <v>168.6534109867667</v>
@@ -31767,16 +31767,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L11" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M11" t="n">
-        <v>348.9189914659138</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N11" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O11" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P11" t="n">
         <v>285.7487894273646</v>
@@ -31788,10 +31788,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S11" t="n">
-        <v>45.28125130397735</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T11" t="n">
-        <v>8.698570601564926</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U11" t="n">
         <v>0.1589687374357952</v>
@@ -31837,7 +31837,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I12" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J12" t="n">
         <v>100.4488161921859</v>
@@ -31846,7 +31846,7 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L12" t="n">
-        <v>230.8490156257446</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M12" t="n">
         <v>269.3899127906122</v>
@@ -31855,25 +31855,25 @@
         <v>276.5198621874765</v>
       </c>
       <c r="O12" t="n">
-        <v>252.9616513614739</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P12" t="n">
-        <v>203.0240267107094</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q12" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R12" t="n">
-        <v>66.0114870255134</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S12" t="n">
         <v>19.74842099131456</v>
       </c>
       <c r="T12" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06994718178741884</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H13" t="n">
-        <v>7.924901029003428</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I13" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J13" t="n">
-        <v>63.01835920507119</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K13" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L13" t="n">
-        <v>132.5192550391841</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M13" t="n">
         <v>139.7229738682065</v>
@@ -31937,22 +31937,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P13" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.63830611262836</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R13" t="n">
-        <v>40.07828270905002</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S13" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T13" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04861902471781247</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H14" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I14" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J14" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K14" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L14" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M14" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N14" t="n">
         <v>354.5648655314068</v>
       </c>
       <c r="O14" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P14" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q14" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R14" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S14" t="n">
-        <v>45.28125130397732</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T14" t="n">
-        <v>8.698570601564921</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U14" t="n">
         <v>0.1589687374357951</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H15" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I15" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J15" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K15" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L15" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M15" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N15" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O15" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P15" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q15" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R15" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S15" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T15" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.891348786493227</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H16" t="n">
-        <v>7.924901029003424</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I16" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J16" t="n">
-        <v>63.01835920507115</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K16" t="n">
         <v>103.5585226489404</v>
@@ -32168,28 +32168,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N16" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O16" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P16" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.63830611262831</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R16" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S16" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T16" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04861902471781244</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H17" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J17" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K17" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L17" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M17" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N17" t="n">
         <v>354.5648655314068</v>
       </c>
       <c r="O17" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P17" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q17" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R17" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S17" t="n">
-        <v>45.28125130397732</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T17" t="n">
-        <v>8.698570601564921</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U17" t="n">
         <v>0.1589687374357951</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H18" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I18" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J18" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K18" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L18" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M18" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N18" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O18" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P18" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q18" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R18" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S18" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T18" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.891348786493227</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003424</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I19" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507115</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
@@ -32405,28 +32405,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N19" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O19" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P19" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.63830611262831</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R19" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S19" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T19" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04861902471781244</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H20" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I20" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J20" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K20" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L20" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M20" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N20" t="n">
         <v>354.5648655314068</v>
       </c>
       <c r="O20" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P20" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q20" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R20" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S20" t="n">
-        <v>45.28125130397732</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T20" t="n">
-        <v>8.698570601564921</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U20" t="n">
         <v>0.1589687374357951</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H21" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I21" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J21" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K21" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L21" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M21" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N21" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O21" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P21" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q21" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R21" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S21" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T21" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.891348786493227</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H22" t="n">
-        <v>7.924901029003424</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I22" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J22" t="n">
-        <v>63.01835920507115</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K22" t="n">
         <v>103.5585226489404</v>
@@ -32642,28 +32642,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N22" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O22" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P22" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.63830611262831</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R22" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S22" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T22" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04861902471781244</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H23" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I23" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J23" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K23" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L23" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M23" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N23" t="n">
         <v>354.5648655314068</v>
       </c>
       <c r="O23" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P23" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q23" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R23" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S23" t="n">
-        <v>45.28125130397732</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T23" t="n">
-        <v>8.698570601564921</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U23" t="n">
         <v>0.1589687374357951</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H24" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I24" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J24" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K24" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L24" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M24" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N24" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O24" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P24" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q24" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R24" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S24" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T24" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.891348786493227</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H25" t="n">
-        <v>7.924901029003424</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I25" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J25" t="n">
-        <v>63.01835920507115</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K25" t="n">
         <v>103.5585226489404</v>
@@ -32879,28 +32879,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N25" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O25" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P25" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.63830611262831</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R25" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S25" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T25" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04861902471781244</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H26" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I26" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J26" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K26" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L26" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M26" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N26" t="n">
         <v>354.5648655314068</v>
       </c>
       <c r="O26" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P26" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R26" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S26" t="n">
-        <v>45.28125130397732</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T26" t="n">
-        <v>8.698570601564921</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U26" t="n">
         <v>0.1589687374357951</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H27" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I27" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J27" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K27" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L27" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M27" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N27" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O27" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P27" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q27" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R27" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S27" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T27" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.891348786493227</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H28" t="n">
-        <v>7.924901029003424</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I28" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J28" t="n">
-        <v>63.01835920507115</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K28" t="n">
         <v>103.5585226489404</v>
@@ -33116,28 +33116,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N28" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O28" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P28" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.63830611262831</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R28" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S28" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T28" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04861902471781244</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H29" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I29" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J29" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K29" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L29" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M29" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N29" t="n">
         <v>354.5648655314068</v>
       </c>
       <c r="O29" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P29" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q29" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R29" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S29" t="n">
-        <v>45.28125130397732</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T29" t="n">
-        <v>8.698570601564921</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U29" t="n">
         <v>0.1589687374357951</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H30" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I30" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J30" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K30" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L30" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M30" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N30" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O30" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P30" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q30" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R30" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S30" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T30" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.891348786493227</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H31" t="n">
-        <v>7.924901029003424</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I31" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507115</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K31" t="n">
         <v>103.5585226489404</v>
@@ -33353,28 +33353,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N31" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O31" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P31" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.63830611262831</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R31" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S31" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T31" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04861902471781244</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H32" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I32" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J32" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K32" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L32" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M32" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N32" t="n">
         <v>354.5648655314068</v>
       </c>
       <c r="O32" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P32" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R32" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S32" t="n">
-        <v>45.28125130397732</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T32" t="n">
-        <v>8.698570601564921</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U32" t="n">
         <v>0.1589687374357951</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H33" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I33" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J33" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K33" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L33" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M33" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N33" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O33" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P33" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q33" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R33" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S33" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T33" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.891348786493227</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H34" t="n">
-        <v>7.924901029003424</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I34" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507115</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K34" t="n">
         <v>103.5585226489404</v>
@@ -33590,28 +33590,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N34" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O34" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P34" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.63830611262831</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R34" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S34" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T34" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04861902471781244</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H35" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I35" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J35" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K35" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L35" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M35" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N35" t="n">
         <v>354.5648655314068</v>
       </c>
       <c r="O35" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P35" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q35" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R35" t="n">
         <v>124.822749411891</v>
       </c>
       <c r="S35" t="n">
-        <v>45.28125130397732</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T35" t="n">
-        <v>8.698570601564921</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U35" t="n">
         <v>0.1589687374357951</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H36" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I36" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J36" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K36" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L36" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M36" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N36" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O36" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P36" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q36" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R36" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S36" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T36" t="n">
-        <v>4.285430670842522</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.891348786493227</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H37" t="n">
-        <v>7.924901029003424</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I37" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J37" t="n">
-        <v>63.01835920507115</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K37" t="n">
         <v>103.5585226489404</v>
@@ -33827,28 +33827,28 @@
         <v>139.7229738682065</v>
       </c>
       <c r="N37" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O37" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P37" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.63830611262831</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R37" t="n">
-        <v>40.07828270905</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S37" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T37" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04861902471781244</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H38" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I38" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J38" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K38" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L38" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M38" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N38" t="n">
-        <v>354.5648655314067</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O38" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q38" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R38" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S38" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T38" t="n">
-        <v>8.698570601564919</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U38" t="n">
         <v>0.1589687374357951</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H39" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I39" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J39" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K39" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L39" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M39" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N39" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O39" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P39" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q39" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R39" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S39" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T39" t="n">
-        <v>4.285430670842521</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8913487864932269</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H40" t="n">
-        <v>7.924901029003423</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I40" t="n">
-        <v>26.80528896108723</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507114</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K40" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L40" t="n">
-        <v>132.5192550391839</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M40" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N40" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O40" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P40" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.6383061126283</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R40" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S40" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T40" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04861902471781243</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H41" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J41" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K41" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L41" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M41" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N41" t="n">
-        <v>354.5648655314067</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O41" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P41" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R41" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S41" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T41" t="n">
-        <v>8.698570601564919</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U41" t="n">
         <v>0.1589687374357951</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H42" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I42" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K42" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L42" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M42" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N42" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O42" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P42" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q42" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R42" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S42" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T42" t="n">
-        <v>4.285430670842521</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8913487864932269</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H43" t="n">
-        <v>7.924901029003423</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I43" t="n">
-        <v>26.80528896108723</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J43" t="n">
-        <v>63.01835920507114</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K43" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L43" t="n">
-        <v>132.5192550391839</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M43" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N43" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O43" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P43" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.6383061126283</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R43" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S43" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T43" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04861902471781243</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.987109217947439</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H44" t="n">
         <v>20.35048227830422</v>
       </c>
       <c r="I44" t="n">
-        <v>76.60802812491873</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J44" t="n">
-        <v>168.6534109867666</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K44" t="n">
-        <v>252.7677441824818</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L44" t="n">
-        <v>313.5807379112408</v>
+        <v>313.5807379112399</v>
       </c>
       <c r="M44" t="n">
-        <v>348.9189914659136</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N44" t="n">
-        <v>354.5648655314067</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O44" t="n">
-        <v>334.8055482454419</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P44" t="n">
-        <v>285.7487894273644</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q44" t="n">
-        <v>214.5854405596217</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R44" t="n">
-        <v>124.8227494118909</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S44" t="n">
-        <v>45.28125130397731</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T44" t="n">
-        <v>8.698570601564919</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U44" t="n">
         <v>0.1589687374357951</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.063197163168765</v>
+        <v>1.063197163168766</v>
       </c>
       <c r="H45" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I45" t="n">
-        <v>36.60569180208249</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J45" t="n">
-        <v>100.4488161921858</v>
+        <v>100.4488161921859</v>
       </c>
       <c r="K45" t="n">
-        <v>171.6830261244931</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L45" t="n">
-        <v>230.8490156257444</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M45" t="n">
-        <v>269.3899127906121</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N45" t="n">
-        <v>276.5198621874763</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O45" t="n">
-        <v>252.9616513614737</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P45" t="n">
-        <v>203.0240267107092</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q45" t="n">
         <v>135.7161852494024</v>
       </c>
       <c r="R45" t="n">
-        <v>66.01148702551336</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S45" t="n">
-        <v>19.74842099131455</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T45" t="n">
-        <v>4.285430670842521</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06994718178741879</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8913487864932269</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H46" t="n">
-        <v>7.924901029003423</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I46" t="n">
-        <v>26.80528896108723</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J46" t="n">
-        <v>63.01835920507114</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K46" t="n">
-        <v>103.5585226489403</v>
+        <v>103.5585226489404</v>
       </c>
       <c r="L46" t="n">
-        <v>132.5192550391839</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M46" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N46" t="n">
-        <v>136.4006738458227</v>
+        <v>136.4006738458228</v>
       </c>
       <c r="O46" t="n">
-        <v>125.9880993854245</v>
+        <v>125.9880993854246</v>
       </c>
       <c r="P46" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.6383061126283</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R46" t="n">
-        <v>40.07828270904999</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S46" t="n">
         <v>15.53377839734105</v>
       </c>
       <c r="T46" t="n">
-        <v>3.808490269561969</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04861902471781243</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J11" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K11" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L11" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M11" t="n">
-        <v>311.487728566482</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N11" t="n">
-        <v>317.285242696961</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O11" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P11" t="n">
         <v>248.1734276171333</v>
@@ -35433,7 +35433,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R11" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.43330505208251</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J12" t="n">
-        <v>79.83770185885258</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K12" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L12" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M12" t="n">
-        <v>404.8655501773062</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N12" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O12" t="n">
         <v>229.7897616392516</v>
@@ -35509,10 +35509,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.969146960424</v>
+        <v>378.0622722179372</v>
       </c>
       <c r="R12" t="n">
-        <v>148.85927498986</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K13" t="n">
-        <v>82.59386819622841</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L13" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M13" t="n">
-        <v>347.8229714793812</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N13" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O13" t="n">
-        <v>485.0064111831651</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P13" t="n">
-        <v>401.3391416378324</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.01874334784341</v>
+        <v>131.4852281079922</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,10 +35643,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J14" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K14" t="n">
         <v>217.0031433876725</v>
@@ -35655,22 +35655,22 @@
         <v>275.2686954786179</v>
       </c>
       <c r="M14" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N14" t="n">
         <v>317.2852426969608</v>
       </c>
       <c r="O14" t="n">
-        <v>297.4145888894178</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P14" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R14" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.43330505208249</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885253</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K15" t="n">
-        <v>414.3769175486734</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L15" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M15" t="n">
         <v>246.2931322782842</v>
       </c>
       <c r="N15" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O15" t="n">
         <v>229.7897616392515</v>
@@ -35749,7 +35749,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R15" t="n">
-        <v>42.33856763136922</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.38160322116929</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K16" t="n">
-        <v>82.59386819622836</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L16" t="n">
         <v>490.7912967507201</v>
@@ -35816,16 +35816,16 @@
         <v>117.1475339767207</v>
       </c>
       <c r="N16" t="n">
-        <v>446.8986708768586</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O16" t="n">
-        <v>485.006411183165</v>
+        <v>414.1998517737608</v>
       </c>
       <c r="P16" t="n">
         <v>401.3391416378323</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.01874334784337</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J17" t="n">
         <v>139.2334515011801</v>
@@ -35892,22 +35892,22 @@
         <v>275.2686954786179</v>
       </c>
       <c r="M17" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N17" t="n">
         <v>317.2852426969608</v>
       </c>
       <c r="O17" t="n">
-        <v>297.4145888894178</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P17" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q17" t="n">
-        <v>178.4607659550241</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R17" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.43330505208249</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885253</v>
+        <v>344.9308271163658</v>
       </c>
       <c r="K18" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L18" t="n">
-        <v>473.4270541690286</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M18" t="n">
         <v>246.2931322782842</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O18" t="n">
         <v>229.7897616392515</v>
@@ -35986,7 +35986,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R18" t="n">
-        <v>42.33856763136922</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.38160322116929</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K19" t="n">
-        <v>239.0755877901233</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L19" t="n">
         <v>110.6004951434828</v>
       </c>
       <c r="M19" t="n">
-        <v>117.1475339767207</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N19" t="n">
         <v>517.7052302862629</v>
@@ -36059,10 +36059,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P19" t="n">
-        <v>401.3391416378323</v>
+        <v>214.7193844185825</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,10 +36117,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J20" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K20" t="n">
         <v>217.0031433876725</v>
@@ -36129,22 +36129,22 @@
         <v>275.2686954786179</v>
       </c>
       <c r="M20" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N20" t="n">
         <v>317.2852426969608</v>
       </c>
       <c r="O20" t="n">
-        <v>297.4145888894178</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P20" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q20" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.43330505208249</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J21" t="n">
-        <v>79.83770185885253</v>
+        <v>344.9308271163658</v>
       </c>
       <c r="K21" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L21" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M21" t="n">
-        <v>511.3862575357979</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N21" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O21" t="n">
         <v>229.7897616392515</v>
@@ -36223,7 +36223,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R21" t="n">
-        <v>42.33856763136922</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.38160322116929</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K22" t="n">
-        <v>82.59386819622836</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L22" t="n">
         <v>490.7912967507201</v>
       </c>
       <c r="M22" t="n">
-        <v>534.4427286986307</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N22" t="n">
-        <v>258.2184528471755</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O22" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P22" t="n">
-        <v>401.3391416378323</v>
+        <v>330.5325822284289</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J23" t="n">
         <v>534.9195310038328</v>
@@ -36366,22 +36366,22 @@
         <v>275.2686954786179</v>
       </c>
       <c r="M23" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N23" t="n">
-        <v>750.8836385195242</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O23" t="n">
-        <v>297.4145888894178</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P23" t="n">
-        <v>275.9075043100006</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q23" t="n">
-        <v>178.4607659550236</v>
+        <v>486.0168159676758</v>
       </c>
       <c r="R23" t="n">
-        <v>89.79009951709449</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.43330505208249</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J24" t="n">
-        <v>79.83770185885253</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K24" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L24" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M24" t="n">
         <v>246.2931322782842</v>
       </c>
       <c r="N24" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O24" t="n">
-        <v>229.7897616392515</v>
+        <v>364.6679312105853</v>
       </c>
       <c r="P24" t="n">
         <v>181.2531855058806</v>
       </c>
       <c r="Q24" t="n">
-        <v>378.0622722179374</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R24" t="n">
-        <v>42.33856763136922</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.38160322116929</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K25" t="n">
         <v>332.3742814427153</v>
       </c>
       <c r="L25" t="n">
-        <v>456.607746980871</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M25" t="n">
         <v>534.8601405048234</v>
@@ -36536,7 +36536,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148676154</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J26" t="n">
-        <v>139.2334515011801</v>
+        <v>499.4349253750868</v>
       </c>
       <c r="K26" t="n">
-        <v>466.7762232728711</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L26" t="n">
         <v>275.2686954786179</v>
       </c>
       <c r="M26" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N26" t="n">
         <v>317.2852426969608</v>
       </c>
       <c r="O26" t="n">
-        <v>750.8836385195242</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P26" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q26" t="n">
-        <v>178.4607659550236</v>
+        <v>675.2778440992006</v>
       </c>
       <c r="R26" t="n">
-        <v>243.5665220198734</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.43330505208249</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J27" t="n">
-        <v>79.83770185885253</v>
+        <v>344.9308271163657</v>
       </c>
       <c r="K27" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L27" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M27" t="n">
         <v>246.2931322782842</v>
       </c>
       <c r="N27" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O27" t="n">
         <v>229.7897616392515</v>
       </c>
       <c r="P27" t="n">
-        <v>446.3463107633941</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q27" t="n">
         <v>112.9691469604239</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136922</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K28" t="n">
         <v>332.3742814427153</v>
@@ -36767,13 +36767,13 @@
         <v>517.7052302862629</v>
       </c>
       <c r="O28" t="n">
-        <v>372.1140567181432</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P28" t="n">
         <v>401.3391416378323</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.9212659517818</v>
+        <v>168.7377161819327</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,10 +36828,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J29" t="n">
-        <v>139.2334515011801</v>
+        <v>345.6585028723073</v>
       </c>
       <c r="K29" t="n">
         <v>217.0031433876725</v>
@@ -36840,22 +36840,22 @@
         <v>275.2686954786179</v>
       </c>
       <c r="M29" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N29" t="n">
-        <v>750.8836385195242</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O29" t="n">
-        <v>720.8347450849382</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P29" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q29" t="n">
-        <v>178.4607659550236</v>
+        <v>675.2778440992006</v>
       </c>
       <c r="R29" t="n">
-        <v>89.79009951709449</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.43330505208249</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885253</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K30" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L30" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M30" t="n">
-        <v>511.3862575357978</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N30" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O30" t="n">
         <v>229.7897616392515</v>
@@ -36934,7 +36934,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136922</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J32" t="n">
-        <v>139.2334515011801</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K32" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L32" t="n">
-        <v>698.6888516741378</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M32" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N32" t="n">
-        <v>750.8836385195242</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O32" t="n">
-        <v>297.4145888894178</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P32" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q32" t="n">
-        <v>178.4607659550236</v>
+        <v>486.0168159676748</v>
       </c>
       <c r="R32" t="n">
-        <v>89.79009951709449</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.43330505208249</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J33" t="n">
-        <v>79.83770185885253</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K33" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L33" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M33" t="n">
         <v>246.2931322782842</v>
       </c>
       <c r="N33" t="n">
-        <v>520.2699592314484</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O33" t="n">
         <v>229.7897616392515</v>
@@ -37171,7 +37171,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R33" t="n">
-        <v>42.33856763136922</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K34" t="n">
         <v>332.3742814427153</v>
@@ -37235,7 +37235,7 @@
         <v>490.7912967507201</v>
       </c>
       <c r="M34" t="n">
-        <v>421.9677860398018</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N34" t="n">
         <v>517.7052302862629</v>
@@ -37247,7 +37247,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.9212659517818</v>
+        <v>168.7377161819327</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,10 +37302,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J35" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K35" t="n">
         <v>217.0031433876725</v>
@@ -37314,22 +37314,22 @@
         <v>275.2686954786179</v>
       </c>
       <c r="M35" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N35" t="n">
         <v>317.2852426969608</v>
       </c>
       <c r="O35" t="n">
-        <v>297.4145888894178</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P35" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q35" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R35" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.43330505208249</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J36" t="n">
-        <v>79.83770185885253</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K36" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L36" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M36" t="n">
         <v>246.2931322782842</v>
       </c>
       <c r="N36" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O36" t="n">
         <v>229.7897616392515</v>
@@ -37405,10 +37405,10 @@
         <v>181.2531855058806</v>
       </c>
       <c r="Q36" t="n">
-        <v>378.0622722179374</v>
+        <v>247.8473165317577</v>
       </c>
       <c r="R36" t="n">
-        <v>42.33856763136922</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K37" t="n">
-        <v>82.59386819622836</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L37" t="n">
-        <v>341.2759326461431</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M37" t="n">
-        <v>117.1475339767207</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N37" t="n">
         <v>517.7052302862629</v>
       </c>
       <c r="O37" t="n">
-        <v>485.006411183165</v>
+        <v>312.8200152067071</v>
       </c>
       <c r="P37" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.01874334784337</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J38" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K38" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L38" t="n">
-        <v>275.2686954786178</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M38" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664828</v>
       </c>
       <c r="N38" t="n">
-        <v>317.2852426969607</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O38" t="n">
-        <v>297.4145888894185</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P38" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R38" t="n">
-        <v>89.79009951709446</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.43330505208249</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J39" t="n">
-        <v>79.83770185885251</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K39" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L39" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M39" t="n">
-        <v>246.2931322782841</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N39" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O39" t="n">
-        <v>494.8828868967653</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P39" t="n">
         <v>181.2531855058806</v>
@@ -37645,7 +37645,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136922</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K40" t="n">
-        <v>299.3542660819473</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L40" t="n">
-        <v>490.7912967507201</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M40" t="n">
-        <v>534.4427286986307</v>
+        <v>261.0553937838129</v>
       </c>
       <c r="N40" t="n">
-        <v>115.6517728702223</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O40" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P40" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.01874334784335</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J41" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K41" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876734</v>
       </c>
       <c r="L41" t="n">
-        <v>275.2686954786178</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M41" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N41" t="n">
-        <v>317.2852426969607</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O41" t="n">
-        <v>297.4145888894178</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P41" t="n">
-        <v>248.1734276171339</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q41" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R41" t="n">
-        <v>89.79009951709446</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.43330505208249</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J42" t="n">
-        <v>79.83770185885251</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K42" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L42" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M42" t="n">
-        <v>246.2931322782841</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N42" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O42" t="n">
         <v>229.7897616392515</v>
@@ -37879,10 +37879,10 @@
         <v>181.2531855058806</v>
       </c>
       <c r="Q42" t="n">
-        <v>378.0622722179379</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R42" t="n">
-        <v>42.33856763136922</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37946,16 +37946,16 @@
         <v>490.7912967507201</v>
       </c>
       <c r="M43" t="n">
-        <v>534.4427286986307</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N43" t="n">
-        <v>115.6517728702223</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O43" t="n">
-        <v>233.4817320771495</v>
+        <v>334.8615686442043</v>
       </c>
       <c r="P43" t="n">
-        <v>85.42378348297612</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q43" t="n">
         <v>202.9212659517818</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06012558095523</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J44" t="n">
-        <v>139.2334515011801</v>
+        <v>139.2334515011802</v>
       </c>
       <c r="K44" t="n">
-        <v>217.0031433876724</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L44" t="n">
-        <v>275.2686954786178</v>
+        <v>275.268695478617</v>
       </c>
       <c r="M44" t="n">
-        <v>311.4877285664817</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N44" t="n">
-        <v>317.2852426969607</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O44" t="n">
-        <v>297.4145888894178</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P44" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q44" t="n">
-        <v>178.4607659550236</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R44" t="n">
-        <v>89.79009951709446</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.43330505208249</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J45" t="n">
-        <v>238.4101197578761</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K45" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L45" t="n">
-        <v>208.3339289115148</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M45" t="n">
-        <v>246.2931322782841</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N45" t="n">
-        <v>255.1768339739347</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O45" t="n">
         <v>229.7897616392515</v>
@@ -38116,10 +38116,10 @@
         <v>181.2531855058806</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.9691469604239</v>
+        <v>247.8473165317577</v>
       </c>
       <c r="R45" t="n">
-        <v>148.8592749898599</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.38160322116927</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K46" t="n">
-        <v>223.8338504842537</v>
+        <v>145.1250457890803</v>
       </c>
       <c r="L46" t="n">
-        <v>110.6004951434827</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M46" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986305</v>
       </c>
       <c r="N46" t="n">
-        <v>115.6517728702223</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O46" t="n">
         <v>485.006411183165</v>
